--- a/biology/Botanique/Zombia/Zombia.xlsx
+++ b/biology/Botanique/Zombia/Zombia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zombia est un genre de palmiers, des plantes de la famille des Arecaceae (Arécacées), endémique de Haïti et de la République dominicaine (île d'Hispaniola). Il contient l'unique espèce suivante :
 Zombia antillarum
@@ -513,11 +525,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
-Tribu des Cryosophileae   [1]
+Tribu des Cryosophileae   
 Le genre partage cette tribu avec 10 autres genres qui sont :
 Schippia, Trithrinax, Sabinaria, Itaya, Chelyocarpus, Cryosophila, Thrinax, Leucothrinax, Hemithrinax et Coccothrinax.
 </t>
@@ -548,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) William J. Baker et John Dransfield, « Beyond Genera Palmarum : progress and prospects in palm systematics », Botanical Journal of the Linnean Society, vol. 182, no 2,‎ octobre 2016, p. 207–233 (DOI 10.1111/boj.12401, lire en ligne, consulté le 10 janvier 2021)
